--- a/09-25-2025/9.25.25 Leaf Count.xlsx
+++ b/09-25-2025/9.25.25 Leaf Count.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/areeshaimtiaz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/areeshaimtiaz/Documents/Classes/Current/CS 4620-06/CS-4620-06/09-25-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401E9EE1-8BE8-9E44-9420-DFDE9E8C1C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -5663,7 +5663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD30547-BCE6-4F9B-BA81-78AC6D429C52}">
   <dimension ref="A1:AY39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
